--- a/data/trans_dic/IP13_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R2_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 10,87</t>
+          <t>1,77; 11,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,15</t>
+          <t>0,7; 6,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,55</t>
+          <t>1,8; 7,43</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,8</t>
+          <t>3,63; 9,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,56</t>
+          <t>2,45; 7,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,71</t>
+          <t>3,63; 7,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,62</t>
+          <t>2,61; 8,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,77</t>
+          <t>2,25; 7,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,06</t>
+          <t>3,11; 7,02</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,72</t>
+          <t>2,27; 6,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,35</t>
+          <t>2,32; 6,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,97</t>
+          <t>2,81; 5,85</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,44</t>
+          <t>3,73; 6,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,76</t>
+          <t>2,97; 5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,55</t>
+          <t>3,67; 5,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP13_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 11,85</t>
+          <t>0,66; 6,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,7</t>
+          <t>1,9; 11,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,43</t>
+          <t>1,82; 7,74</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,59</t>
+          <t>2,38; 7,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,63</t>
+          <t>3,85; 9,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,49</t>
+          <t>3,51; 7,42</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,33</t>
+          <t>2,57; 8,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,74</t>
+          <t>2,94; 8,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,02</t>
+          <t>3,25; 7,02</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,44</t>
+          <t>2,1; 6,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,43</t>
+          <t>2,09; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,85</t>
+          <t>2,51; 5,31</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,52</t>
+          <t>2,88; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,63</t>
+          <t>3,61; 6,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 5,52</t>
+          <t>3,64; 5,51</t>
         </is>
       </c>
     </row>
